--- a/results/11_08/cat_by_cost.xlsx
+++ b/results/11_08/cat_by_cost.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="244">
   <si>
     <t xml:space="preserve">domain</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t xml:space="preserve">max_op_cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_cost</t>
   </si>
   <si>
     <t xml:space="preserve">openstacks</t>
@@ -944,7 +950,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -957,10 +963,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="975" min="8" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="976" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="977" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="978" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,10 +985,16 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20</v>
@@ -996,13 +1008,19 @@
       <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20</v>
@@ -1016,13 +1034,19 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20</v>
@@ -1036,13 +1060,19 @@
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>20</v>
@@ -1056,13 +1086,19 @@
       <c r="E5" s="2" t="n">
         <v>32.8</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
+      <c r="F5" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>20</v>
@@ -1076,10 +1112,16 @@
       <c r="E6" s="2" t="n">
         <v>217007.7</v>
       </c>
+      <c r="F6" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>224040</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
@@ -1093,10 +1135,16 @@
       <c r="E7" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>0</v>
@@ -1110,10 +1158,16 @@
       <c r="E8" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>0</v>
@@ -1127,10 +1181,16 @@
       <c r="E9" s="4" t="n">
         <v>10</v>
       </c>
+      <c r="F9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>0</v>
@@ -1144,10 +1204,16 @@
       <c r="E10" s="4" t="n">
         <v>3</v>
       </c>
+      <c r="F10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>0</v>
@@ -1161,10 +1227,16 @@
       <c r="E11" s="4" t="n">
         <v>95.2</v>
       </c>
+      <c r="F11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>0</v>
@@ -1178,14 +1250,13 @@
       <c r="E12" s="4" t="n">
         <v>44.25</v>
       </c>
-    </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F12" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1202,10 +1273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G196" activeCellId="0" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1221,7 +1292,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -1238,7 +1309,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1255,7 +1326,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1272,7 +1343,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1289,7 +1360,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1306,7 +1377,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1323,7 +1394,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1340,7 +1411,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1357,7 +1428,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1374,7 +1445,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1391,7 +1462,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1408,7 +1479,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1425,7 +1496,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1442,7 +1513,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1459,7 +1530,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1476,7 +1547,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1493,7 +1564,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1510,7 +1581,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1527,7 +1598,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1544,7 +1615,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1561,7 +1632,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1578,7 +1649,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1595,7 +1666,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>1</v>
@@ -1612,7 +1683,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
@@ -1629,7 +1700,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -1646,7 +1717,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -1663,7 +1734,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -1680,7 +1751,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -1697,7 +1768,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -1714,7 +1785,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -1731,7 +1802,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -1748,7 +1819,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
@@ -1765,7 +1836,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -1782,7 +1853,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -1799,7 +1870,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -1816,7 +1887,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
@@ -1833,7 +1904,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -1850,7 +1921,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
@@ -1867,7 +1938,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -1884,7 +1955,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -1901,7 +1972,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
@@ -1918,7 +1989,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
@@ -1935,7 +2006,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -1952,7 +2023,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>20</v>
@@ -1969,7 +2040,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>1</v>
@@ -1986,7 +2057,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -2003,7 +2074,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -2020,7 +2091,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -2037,7 +2108,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -2054,7 +2125,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -2071,7 +2142,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -2088,7 +2159,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0</v>
@@ -2105,7 +2176,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
@@ -2122,7 +2193,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
@@ -2139,7 +2210,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -2156,7 +2227,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -2173,7 +2244,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0</v>
@@ -2190,7 +2261,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
@@ -2207,7 +2278,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
@@ -2224,7 +2295,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0</v>
@@ -2241,7 +2312,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0</v>
@@ -2258,7 +2329,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0</v>
@@ -2275,7 +2346,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0</v>
@@ -2292,7 +2363,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0</v>
@@ -2309,7 +2380,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0</v>
@@ -2326,7 +2397,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0</v>
@@ -2343,7 +2414,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>1</v>
@@ -2360,7 +2431,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1</v>
@@ -2377,7 +2448,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>1</v>
@@ -2394,7 +2465,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>1</v>
@@ -2411,7 +2482,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1</v>
@@ -2428,7 +2499,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1</v>
@@ -2445,7 +2516,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1</v>
@@ -2462,7 +2533,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1</v>
@@ -2479,7 +2550,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1</v>
@@ -2496,7 +2567,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1</v>
@@ -2513,7 +2584,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1</v>
@@ -2530,7 +2601,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1</v>
@@ -2547,7 +2618,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1</v>
@@ -2564,7 +2635,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>1</v>
@@ -2581,7 +2652,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>1</v>
@@ -2598,7 +2669,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>1</v>
@@ -2615,7 +2686,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1</v>
@@ -2632,7 +2703,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>1</v>
@@ -2649,7 +2720,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>1</v>
@@ -2666,7 +2737,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>1</v>
@@ -2683,7 +2754,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>1</v>
@@ -2700,7 +2771,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>20</v>
@@ -2717,7 +2788,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>1</v>
@@ -2734,7 +2805,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1</v>
@@ -2751,7 +2822,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>1</v>
@@ -2768,7 +2839,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>1</v>
@@ -2785,7 +2856,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>1</v>
@@ -2802,7 +2873,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>1</v>
@@ -2819,7 +2890,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>1</v>
@@ -2836,7 +2907,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>1</v>
@@ -2853,7 +2924,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>1</v>
@@ -2867,10 +2938,18 @@
       <c r="E101" s="0" t="n">
         <v>212790</v>
       </c>
+      <c r="H101" s="0" t="n">
+        <f aca="false">MIN(D94:D113)</f>
+        <v>125</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <f aca="false">MAX(E94:E113)</f>
+        <v>224040</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
@@ -2887,7 +2966,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>1</v>
@@ -2904,7 +2983,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>1</v>
@@ -2921,7 +3000,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>1</v>
@@ -2938,7 +3017,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>1</v>
@@ -2955,7 +3034,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>1</v>
@@ -2972,7 +3051,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1</v>
@@ -2989,7 +3068,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>1</v>
@@ -3006,7 +3085,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>1</v>
@@ -3023,7 +3102,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>1</v>
@@ -3040,7 +3119,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>1</v>
@@ -3057,7 +3136,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>1</v>
@@ -3074,7 +3153,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>20</v>
@@ -3091,7 +3170,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>1</v>
@@ -3108,7 +3187,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>1</v>
@@ -3125,7 +3204,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>1</v>
@@ -3142,7 +3221,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>1</v>
@@ -3159,7 +3238,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>1</v>
@@ -3176,7 +3255,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>1</v>
@@ -3193,7 +3272,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>1</v>
@@ -3210,7 +3289,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>1</v>
@@ -3227,7 +3306,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>1</v>
@@ -3244,7 +3323,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>1</v>
@@ -3261,7 +3340,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>1</v>
@@ -3278,7 +3357,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>1</v>
@@ -3295,7 +3374,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>1</v>
@@ -3312,7 +3391,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>1</v>
@@ -3329,7 +3408,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>1</v>
@@ -3346,7 +3425,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>1</v>
@@ -3363,7 +3442,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>1</v>
@@ -3380,7 +3459,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>1</v>
@@ -3397,7 +3476,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>1</v>
@@ -3414,7 +3493,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>1</v>
@@ -3431,7 +3510,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>1</v>
@@ -3448,7 +3527,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>20</v>
@@ -3465,7 +3544,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>1</v>
@@ -3482,7 +3561,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>0</v>
@@ -3499,7 +3578,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0</v>
@@ -3516,7 +3595,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>0</v>
@@ -3533,7 +3612,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>0</v>
@@ -3550,7 +3629,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0</v>
@@ -3567,7 +3646,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>0</v>
@@ -3584,7 +3663,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>0</v>
@@ -3601,7 +3680,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>0</v>
@@ -3618,7 +3697,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>0</v>
@@ -3635,7 +3714,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>0</v>
@@ -3652,7 +3731,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>0</v>
@@ -3669,7 +3748,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>0</v>
@@ -3686,7 +3765,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>0</v>
@@ -3703,7 +3782,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>0</v>
@@ -3720,7 +3799,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>0</v>
@@ -3737,7 +3816,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>0</v>
@@ -3754,7 +3833,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>0</v>
@@ -3771,7 +3850,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>0</v>
@@ -3788,7 +3867,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>0</v>
@@ -3805,7 +3884,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>0</v>
@@ -3822,7 +3901,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>0</v>
@@ -3839,7 +3918,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>1</v>
@@ -3856,7 +3935,7 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>1</v>
@@ -3873,7 +3952,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>1</v>
@@ -3890,7 +3969,7 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>1</v>
@@ -3907,7 +3986,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>1</v>
@@ -3924,7 +4003,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>1</v>
@@ -3941,7 +4020,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>1</v>
@@ -3958,7 +4037,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>1</v>
@@ -3975,7 +4054,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>1</v>
@@ -3992,7 +4071,7 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>1</v>
@@ -4009,7 +4088,7 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>1</v>
@@ -4026,7 +4105,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>1</v>
@@ -4043,7 +4122,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>1</v>
@@ -4060,7 +4139,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>1</v>
@@ -4077,7 +4156,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>1</v>
@@ -4094,7 +4173,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>1</v>
@@ -4111,7 +4190,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>1</v>
@@ -4128,7 +4207,7 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>1</v>
@@ -4145,7 +4224,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>1</v>
@@ -4162,7 +4241,7 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>1</v>
@@ -4179,7 +4258,7 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>1</v>
@@ -4196,7 +4275,7 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>20</v>
@@ -4213,7 +4292,7 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>1</v>
@@ -4230,7 +4309,7 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>0</v>
@@ -4247,7 +4326,7 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>0</v>
@@ -4264,7 +4343,7 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>0</v>
@@ -4281,7 +4360,7 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>0</v>
@@ -4298,7 +4377,7 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>0</v>
@@ -4315,7 +4394,7 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>0</v>
@@ -4332,7 +4411,7 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>0</v>
@@ -4349,7 +4428,7 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>0</v>
@@ -4366,7 +4445,7 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>0</v>
@@ -4383,7 +4462,7 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>0</v>
@@ -4397,10 +4476,14 @@
       <c r="E195" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="G195" s="0" t="n">
+        <f aca="false">MAX(E186:E205)</f>
+        <v>190</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>0</v>
@@ -4417,7 +4500,7 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>0</v>
@@ -4434,7 +4517,7 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>0</v>
@@ -4451,7 +4534,7 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>0</v>
@@ -4468,7 +4551,7 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>0</v>
@@ -4485,7 +4568,7 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>0</v>
@@ -4502,7 +4585,7 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>0</v>
@@ -4519,7 +4602,7 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>0</v>
@@ -4536,7 +4619,7 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>0</v>
@@ -4553,7 +4636,7 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>0</v>
@@ -4570,7 +4653,7 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>0</v>
@@ -4587,7 +4670,7 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>1</v>
@@ -4604,7 +4687,7 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>0</v>
@@ -4621,7 +4704,7 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>0</v>
@@ -4638,7 +4721,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>0</v>
@@ -4655,7 +4738,7 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>0</v>
@@ -4672,7 +4755,7 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>0</v>
@@ -4689,7 +4772,7 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>0</v>
@@ -4706,7 +4789,7 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>0</v>
@@ -4723,7 +4806,7 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>0</v>
@@ -4740,7 +4823,7 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>0</v>
@@ -4757,7 +4840,7 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>0</v>
@@ -4774,7 +4857,7 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>0</v>
@@ -4791,7 +4874,7 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>0</v>
@@ -4808,7 +4891,7 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>0</v>
@@ -4825,7 +4908,7 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>0</v>
@@ -4842,7 +4925,7 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>0</v>
@@ -4859,7 +4942,7 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>0</v>
@@ -4876,7 +4959,7 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>0</v>
@@ -4893,7 +4976,7 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>0</v>
@@ -4910,7 +4993,7 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>0</v>
@@ -4927,7 +5010,7 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>0</v>
@@ -4944,7 +5027,7 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>0</v>
@@ -4961,7 +5044,7 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B231" s="0" t="s">
         <v>1</v>
@@ -4978,7 +5061,7 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>0</v>
@@ -4995,7 +5078,7 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>0</v>
@@ -5012,7 +5095,7 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>0</v>
@@ -5029,7 +5112,7 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>0</v>
@@ -5046,7 +5129,7 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>0</v>
@@ -5063,7 +5146,7 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>0</v>
@@ -5080,7 +5163,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>0</v>
@@ -5097,7 +5180,7 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>0</v>
@@ -5114,7 +5197,7 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>0</v>
@@ -5131,7 +5214,7 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>0</v>
@@ -5148,7 +5231,7 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>0</v>
@@ -5165,7 +5248,7 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>0</v>
@@ -5182,7 +5265,7 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>0</v>
@@ -5199,7 +5282,7 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>0</v>
@@ -5216,7 +5299,7 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>0</v>
@@ -5233,7 +5316,7 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>0</v>
@@ -5250,7 +5333,7 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>0</v>
@@ -5267,7 +5350,7 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>0</v>
@@ -5284,7 +5367,7 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>0</v>
@@ -5301,7 +5384,7 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>0</v>
@@ -5318,7 +5401,7 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>0</v>
